--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_CmsRateBonds.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_CmsRateBonds.xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="0" windowWidth="30585" windowHeight="8955"/>
+    <workbookView xWindow="-270" yWindow="0" windowWidth="29040" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Object Creation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondType">'Object Creation'!$D$3</definedName>
     <definedName name="Currency">'Object Creation'!#REF!</definedName>
@@ -96,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="303">
   <si>
     <t>General Settings</t>
   </si>
@@ -1002,6 +999,9 @@
   </si>
   <si>
     <t>EurLiborSwapIfrFix10Y</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
     <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="General_)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1594,22 +1594,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1904,7 +1888,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
@@ -1916,13 +1900,13 @@
     <col min="8" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="74" t="s">
         <v>0</v>
@@ -1931,14 +1915,14 @@
       <c r="D2" s="75"/>
       <c r="E2" s="76"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
@@ -1947,7 +1931,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
@@ -1958,7 +1942,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
@@ -1969,7 +1953,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
@@ -1980,19 +1964,18 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\080_Bond\010_BondDataBase\</v>
+      <c r="D8" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
@@ -2003,7 +1986,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -2030,7 +2013,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
@@ -2070,8 +2053,8 @@
     <col min="37" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" s="1" customFormat="1" ht="12" thickBot="1"/>
-    <row r="2" spans="2:36" s="1" customFormat="1">
+    <row r="1" spans="2:36" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
       <c r="D2" s="18"/>
@@ -2108,7 +2091,7 @@
       <c r="AI2" s="18"/>
       <c r="AJ2" s="19"/>
     </row>
-    <row r="3" spans="2:36" s="1" customFormat="1">
+    <row r="3" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="23" t="s">
         <v>10</v>
@@ -2149,7 +2132,7 @@
       <c r="AI3" s="21"/>
       <c r="AJ3" s="22"/>
     </row>
-    <row r="4" spans="2:36" s="1" customFormat="1">
+    <row r="4" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="23" t="s">
         <v>30</v>
@@ -2190,7 +2173,7 @@
       <c r="AI4" s="21"/>
       <c r="AJ4" s="22"/>
     </row>
-    <row r="5" spans="2:36" s="1" customFormat="1">
+    <row r="5" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="35" t="s">
         <v>38</v>
@@ -2232,17 +2215,17 @@
       <c r="AI5" s="21"/>
       <c r="AJ5" s="22"/>
     </row>
-    <row r="6" spans="2:36" s="1" customFormat="1">
+    <row r="6" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="24" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F9:J85,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>385</v>
+        <v>#NUM!</v>
       </c>
       <c r="E6" s="36" t="str">
-        <f>_xll.ohRangeRetrieveError(D6)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D6)</f>
         <v/>
       </c>
       <c r="F6" s="21"/>
@@ -2277,7 +2260,7 @@
       <c r="AI6" s="21"/>
       <c r="AJ6" s="22"/>
     </row>
-    <row r="7" spans="2:36" s="1" customFormat="1">
+    <row r="7" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -2314,7 +2297,7 @@
       <c r="AI7" s="21"/>
       <c r="AJ7" s="22"/>
     </row>
-    <row r="8" spans="2:36" s="1" customFormat="1">
+    <row r="8" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="34" t="s">
@@ -2415,7 +2398,7 @@
       </c>
       <c r="AJ8" s="22"/>
     </row>
-    <row r="9" spans="2:36" s="1" customFormat="1">
+    <row r="9" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
       <c r="C9" s="37" t="s">
         <v>53</v>
@@ -2525,7 +2508,7 @@
       <c r="AI9" s="46"/>
       <c r="AJ9" s="7"/>
     </row>
-    <row r="10" spans="2:36" s="1" customFormat="1">
+    <row r="10" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
       <c r="C10" s="37" t="s">
         <v>54</v>
@@ -2632,7 +2615,7 @@
       <c r="AI10" s="47"/>
       <c r="AJ10" s="7"/>
     </row>
-    <row r="11" spans="2:36" s="1" customFormat="1">
+    <row r="11" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="20"/>
       <c r="C11" s="37" t="s">
         <v>55</v>
@@ -2742,7 +2725,7 @@
       <c r="AI11" s="47"/>
       <c r="AJ11" s="7"/>
     </row>
-    <row r="12" spans="2:36" s="1" customFormat="1">
+    <row r="12" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="20"/>
       <c r="C12" s="37" t="s">
         <v>56</v>
@@ -2852,7 +2835,7 @@
       <c r="AI12" s="47"/>
       <c r="AJ12" s="7"/>
     </row>
-    <row r="13" spans="2:36" s="1" customFormat="1">
+    <row r="13" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="20"/>
       <c r="C13" s="37" t="s">
         <v>57</v>
@@ -2960,7 +2943,7 @@
       <c r="AI13" s="47"/>
       <c r="AJ13" s="7"/>
     </row>
-    <row r="14" spans="2:36" s="1" customFormat="1">
+    <row r="14" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
       <c r="C14" s="37" t="s">
         <v>58</v>
@@ -3068,7 +3051,7 @@
       <c r="AI14" s="47"/>
       <c r="AJ14" s="7"/>
     </row>
-    <row r="15" spans="2:36" s="1" customFormat="1">
+    <row r="15" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
       <c r="C15" s="37" t="s">
         <v>59</v>
@@ -3178,7 +3161,7 @@
       <c r="AI15" s="47"/>
       <c r="AJ15" s="7"/>
     </row>
-    <row r="16" spans="2:36" s="1" customFormat="1">
+    <row r="16" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="20"/>
       <c r="C16" s="37" t="s">
         <v>60</v>
@@ -3288,7 +3271,7 @@
       <c r="AI16" s="47"/>
       <c r="AJ16" s="7"/>
     </row>
-    <row r="17" spans="2:36" s="1" customFormat="1">
+    <row r="17" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
       <c r="C17" s="37" t="s">
         <v>61</v>
@@ -3398,7 +3381,7 @@
       <c r="AI17" s="47"/>
       <c r="AJ17" s="7"/>
     </row>
-    <row r="18" spans="2:36" s="1" customFormat="1">
+    <row r="18" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="37" t="s">
         <v>62</v>
@@ -3508,7 +3491,7 @@
       <c r="AI18" s="47"/>
       <c r="AJ18" s="7"/>
     </row>
-    <row r="19" spans="2:36" s="1" customFormat="1">
+    <row r="19" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="40"/>
       <c r="C19" s="37" t="s">
         <v>63</v>
@@ -3616,7 +3599,7 @@
       <c r="AI19" s="47"/>
       <c r="AJ19" s="7"/>
     </row>
-    <row r="20" spans="2:36" s="1" customFormat="1">
+    <row r="20" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="40"/>
       <c r="C20" s="37" t="s">
         <v>77</v>
@@ -3723,7 +3706,7 @@
       <c r="AI20" s="47"/>
       <c r="AJ20" s="7"/>
     </row>
-    <row r="21" spans="2:36" s="1" customFormat="1">
+    <row r="21" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="40"/>
       <c r="C21" s="37" t="s">
         <v>78</v>
@@ -3832,7 +3815,7 @@
       <c r="AI21" s="47"/>
       <c r="AJ21" s="7"/>
     </row>
-    <row r="22" spans="2:36" s="1" customFormat="1">
+    <row r="22" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="40"/>
       <c r="C22" s="37" t="s">
         <v>79</v>
@@ -3941,7 +3924,7 @@
       <c r="AI22" s="47"/>
       <c r="AJ22" s="7"/>
     </row>
-    <row r="23" spans="2:36" s="1" customFormat="1">
+    <row r="23" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="40"/>
       <c r="C23" s="37" t="s">
         <v>80</v>
@@ -4049,7 +4032,7 @@
       <c r="AI23" s="47"/>
       <c r="AJ23" s="7"/>
     </row>
-    <row r="24" spans="2:36" s="1" customFormat="1">
+    <row r="24" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="40"/>
       <c r="C24" s="37" t="s">
         <v>81</v>
@@ -4159,7 +4142,7 @@
       <c r="AI24" s="47"/>
       <c r="AJ24" s="7"/>
     </row>
-    <row r="25" spans="2:36" s="1" customFormat="1">
+    <row r="25" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="40"/>
       <c r="C25" s="37" t="s">
         <v>82</v>
@@ -4267,7 +4250,7 @@
       <c r="AI25" s="47"/>
       <c r="AJ25" s="7"/>
     </row>
-    <row r="26" spans="2:36" s="1" customFormat="1">
+    <row r="26" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="40"/>
       <c r="C26" s="37" t="s">
         <v>83</v>
@@ -4375,7 +4358,7 @@
       <c r="AI26" s="47"/>
       <c r="AJ26" s="7"/>
     </row>
-    <row r="27" spans="2:36" s="1" customFormat="1">
+    <row r="27" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="40"/>
       <c r="C27" s="37" t="s">
         <v>84</v>
@@ -4483,7 +4466,7 @@
       <c r="AI27" s="47"/>
       <c r="AJ27" s="7"/>
     </row>
-    <row r="28" spans="2:36" s="1" customFormat="1">
+    <row r="28" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
       <c r="C28" s="37" t="s">
         <v>85</v>
@@ -4591,7 +4574,7 @@
       <c r="AI28" s="47"/>
       <c r="AJ28" s="7"/>
     </row>
-    <row r="29" spans="2:36" s="1" customFormat="1">
+    <row r="29" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="40"/>
       <c r="C29" s="37" t="s">
         <v>86</v>
@@ -4699,7 +4682,7 @@
       <c r="AI29" s="47"/>
       <c r="AJ29" s="7"/>
     </row>
-    <row r="30" spans="2:36" s="1" customFormat="1">
+    <row r="30" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="40"/>
       <c r="C30" s="37" t="s">
         <v>87</v>
@@ -4807,7 +4790,7 @@
       <c r="AI30" s="47"/>
       <c r="AJ30" s="7"/>
     </row>
-    <row r="31" spans="2:36" s="1" customFormat="1">
+    <row r="31" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="40"/>
       <c r="C31" s="37" t="s">
         <v>88</v>
@@ -4917,7 +4900,7 @@
       <c r="AI31" s="47"/>
       <c r="AJ31" s="7"/>
     </row>
-    <row r="32" spans="2:36" s="1" customFormat="1">
+    <row r="32" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="40"/>
       <c r="C32" s="37" t="s">
         <v>89</v>
@@ -5027,7 +5010,7 @@
       <c r="AI32" s="47"/>
       <c r="AJ32" s="7"/>
     </row>
-    <row r="33" spans="2:36" s="1" customFormat="1">
+    <row r="33" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="40"/>
       <c r="C33" s="37" t="s">
         <v>104</v>
@@ -5133,7 +5116,7 @@
       <c r="AI33" s="47"/>
       <c r="AJ33" s="7"/>
     </row>
-    <row r="34" spans="2:36" s="1" customFormat="1">
+    <row r="34" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="40"/>
       <c r="C34" s="37" t="s">
         <v>119</v>
@@ -5242,7 +5225,7 @@
       <c r="AI34" s="47"/>
       <c r="AJ34" s="7"/>
     </row>
-    <row r="35" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="35" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B35" s="40"/>
       <c r="C35" s="37" t="s">
         <v>123</v>
@@ -5354,7 +5337,7 @@
       </c>
       <c r="AJ35" s="7"/>
     </row>
-    <row r="36" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="36" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B36" s="40"/>
       <c r="C36" s="37" t="s">
         <v>117</v>
@@ -5465,7 +5448,7 @@
       </c>
       <c r="AJ36" s="7"/>
     </row>
-    <row r="37" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="37" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B37" s="40"/>
       <c r="C37" s="37" t="s">
         <v>75</v>
@@ -5577,7 +5560,7 @@
       </c>
       <c r="AJ37" s="7"/>
     </row>
-    <row r="38" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="38" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B38" s="40"/>
       <c r="C38" s="37" t="s">
         <v>132</v>
@@ -5689,7 +5672,7 @@
       </c>
       <c r="AJ38" s="7"/>
     </row>
-    <row r="39" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="39" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B39" s="40"/>
       <c r="C39" s="37" t="s">
         <v>133</v>
@@ -5799,7 +5782,7 @@
       </c>
       <c r="AJ39" s="7"/>
     </row>
-    <row r="40" spans="2:36" s="1" customFormat="1">
+    <row r="40" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="40"/>
       <c r="C40" s="37" t="s">
         <v>134</v>
@@ -5909,7 +5892,7 @@
       <c r="AI40" s="47"/>
       <c r="AJ40" s="7"/>
     </row>
-    <row r="41" spans="2:36" s="1" customFormat="1">
+    <row r="41" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="40"/>
       <c r="C41" s="37" t="s">
         <v>135</v>
@@ -6017,7 +6000,7 @@
       <c r="AI41" s="47"/>
       <c r="AJ41" s="7"/>
     </row>
-    <row r="42" spans="2:36" s="1" customFormat="1">
+    <row r="42" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="40"/>
       <c r="C42" s="37" t="s">
         <v>136</v>
@@ -6125,7 +6108,7 @@
       <c r="AI42" s="47"/>
       <c r="AJ42" s="7"/>
     </row>
-    <row r="43" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="43" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B43" s="40"/>
       <c r="C43" s="37" t="s">
         <v>137</v>
@@ -6237,7 +6220,7 @@
       </c>
       <c r="AJ43" s="7"/>
     </row>
-    <row r="44" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="44" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B44" s="40"/>
       <c r="C44" s="37" t="s">
         <v>138</v>
@@ -6346,7 +6329,7 @@
       <c r="AI44" s="48"/>
       <c r="AJ44" s="7"/>
     </row>
-    <row r="45" spans="2:36" s="1" customFormat="1">
+    <row r="45" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="40"/>
       <c r="C45" s="37" t="s">
         <v>139</v>
@@ -6453,7 +6436,7 @@
       <c r="AI45" s="47"/>
       <c r="AJ45" s="7"/>
     </row>
-    <row r="46" spans="2:36" s="1" customFormat="1">
+    <row r="46" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="40"/>
       <c r="C46" s="37" t="s">
         <v>140</v>
@@ -6562,7 +6545,7 @@
       <c r="AI46" s="47"/>
       <c r="AJ46" s="7"/>
     </row>
-    <row r="47" spans="2:36" s="1" customFormat="1">
+    <row r="47" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="40"/>
       <c r="C47" s="37" t="s">
         <v>141</v>
@@ -6670,7 +6653,7 @@
       <c r="AI47" s="47"/>
       <c r="AJ47" s="7"/>
     </row>
-    <row r="48" spans="2:36" s="1" customFormat="1">
+    <row r="48" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="40"/>
       <c r="C48" s="37" t="s">
         <v>142</v>
@@ -6778,7 +6761,7 @@
       <c r="AI48" s="47"/>
       <c r="AJ48" s="7"/>
     </row>
-    <row r="49" spans="2:36" s="1" customFormat="1">
+    <row r="49" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="40"/>
       <c r="C49" s="37" t="s">
         <v>143</v>
@@ -6886,7 +6869,7 @@
       <c r="AI49" s="47"/>
       <c r="AJ49" s="7"/>
     </row>
-    <row r="50" spans="2:36" s="1" customFormat="1">
+    <row r="50" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="40"/>
       <c r="C50" s="37" t="s">
         <v>144</v>
@@ -6994,7 +6977,7 @@
       <c r="AI50" s="47"/>
       <c r="AJ50" s="7"/>
     </row>
-    <row r="51" spans="2:36" s="1" customFormat="1">
+    <row r="51" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="40"/>
       <c r="C51" s="37" t="s">
         <v>145</v>
@@ -7103,7 +7086,7 @@
       <c r="AI51" s="47"/>
       <c r="AJ51" s="7"/>
     </row>
-    <row r="52" spans="2:36" s="1" customFormat="1">
+    <row r="52" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="40"/>
       <c r="C52" s="37" t="s">
         <v>146</v>
@@ -7213,7 +7196,7 @@
       <c r="AI52" s="47"/>
       <c r="AJ52" s="7"/>
     </row>
-    <row r="53" spans="2:36" s="1" customFormat="1">
+    <row r="53" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="40"/>
       <c r="C53" s="37" t="s">
         <v>147</v>
@@ -7323,7 +7306,7 @@
       <c r="AI53" s="47"/>
       <c r="AJ53" s="7"/>
     </row>
-    <row r="54" spans="2:36" s="1" customFormat="1">
+    <row r="54" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="40"/>
       <c r="C54" s="37" t="s">
         <v>148</v>
@@ -7433,7 +7416,7 @@
       <c r="AI54" s="47"/>
       <c r="AJ54" s="7"/>
     </row>
-    <row r="55" spans="2:36" s="1" customFormat="1">
+    <row r="55" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="40"/>
       <c r="C55" s="37" t="s">
         <v>149</v>
@@ -7540,7 +7523,7 @@
       <c r="AI55" s="47"/>
       <c r="AJ55" s="7"/>
     </row>
-    <row r="56" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="56" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B56" s="40"/>
       <c r="C56" s="37" t="s">
         <v>150</v>
@@ -7652,7 +7635,7 @@
       </c>
       <c r="AJ56" s="7"/>
     </row>
-    <row r="57" spans="2:36" s="1" customFormat="1">
+    <row r="57" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="40"/>
       <c r="C57" s="37" t="s">
         <v>151</v>
@@ -7758,7 +7741,7 @@
       <c r="AI57" s="47"/>
       <c r="AJ57" s="7"/>
     </row>
-    <row r="58" spans="2:36" s="1" customFormat="1">
+    <row r="58" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="40"/>
       <c r="C58" s="37" t="s">
         <v>152</v>
@@ -7865,7 +7848,7 @@
       <c r="AI58" s="47"/>
       <c r="AJ58" s="7"/>
     </row>
-    <row r="59" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="59" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B59" s="40"/>
       <c r="C59" s="37" t="s">
         <v>153</v>
@@ -7976,7 +7959,7 @@
       </c>
       <c r="AJ59" s="7"/>
     </row>
-    <row r="60" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="60" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B60" s="40"/>
       <c r="C60" s="37" t="s">
         <v>154</v>
@@ -8083,7 +8066,7 @@
       <c r="AI60" s="48"/>
       <c r="AJ60" s="7"/>
     </row>
-    <row r="61" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="61" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B61" s="40"/>
       <c r="C61" s="37" t="s">
         <v>155</v>
@@ -8190,7 +8173,7 @@
       <c r="AI61" s="48"/>
       <c r="AJ61" s="7"/>
     </row>
-    <row r="62" spans="2:36" s="1" customFormat="1">
+    <row r="62" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="40"/>
       <c r="C62" s="37" t="s">
         <v>156</v>
@@ -8297,7 +8280,7 @@
       <c r="AI62" s="47"/>
       <c r="AJ62" s="7"/>
     </row>
-    <row r="63" spans="2:36" s="1" customFormat="1">
+    <row r="63" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="40"/>
       <c r="C63" s="37" t="s">
         <v>157</v>
@@ -8405,7 +8388,7 @@
       <c r="AI63" s="47"/>
       <c r="AJ63" s="7"/>
     </row>
-    <row r="64" spans="2:36" s="1" customFormat="1">
+    <row r="64" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="40"/>
       <c r="C64" s="37" t="s">
         <v>158</v>
@@ -8513,7 +8496,7 @@
       <c r="AI64" s="47"/>
       <c r="AJ64" s="7"/>
     </row>
-    <row r="65" spans="2:36" s="1" customFormat="1">
+    <row r="65" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="40"/>
       <c r="C65" s="37" t="s">
         <v>159</v>
@@ -8619,7 +8602,7 @@
       <c r="AI65" s="47"/>
       <c r="AJ65" s="7"/>
     </row>
-    <row r="66" spans="2:36" s="1" customFormat="1">
+    <row r="66" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="40"/>
       <c r="C66" s="37" t="s">
         <v>160</v>
@@ -8726,7 +8709,7 @@
       <c r="AI66" s="47"/>
       <c r="AJ66" s="7"/>
     </row>
-    <row r="67" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="67" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B67" s="40"/>
       <c r="C67" s="37" t="s">
         <v>161</v>
@@ -8836,7 +8819,7 @@
       </c>
       <c r="AJ67" s="7"/>
     </row>
-    <row r="68" spans="2:36" s="1" customFormat="1">
+    <row r="68" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="40"/>
       <c r="C68" s="37" t="s">
         <v>162</v>
@@ -8943,7 +8926,7 @@
       <c r="AI68" s="47"/>
       <c r="AJ68" s="7"/>
     </row>
-    <row r="69" spans="2:36" s="1" customFormat="1">
+    <row r="69" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="40"/>
       <c r="C69" s="37" t="s">
         <v>163</v>
@@ -9051,7 +9034,7 @@
       <c r="AI69" s="47"/>
       <c r="AJ69" s="7"/>
     </row>
-    <row r="70" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="70" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B70" s="40"/>
       <c r="C70" s="37" t="s">
         <v>164</v>
@@ -9162,7 +9145,7 @@
       </c>
       <c r="AJ70" s="7"/>
     </row>
-    <row r="71" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="71" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B71" s="40"/>
       <c r="C71" s="37" t="s">
         <v>236</v>
@@ -9270,7 +9253,7 @@
       <c r="AI71" s="48"/>
       <c r="AJ71" s="7"/>
     </row>
-    <row r="72" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="72" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B72" s="40"/>
       <c r="C72" s="37" t="s">
         <v>238</v>
@@ -9380,7 +9363,7 @@
       </c>
       <c r="AJ72" s="7"/>
     </row>
-    <row r="73" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="73" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B73" s="40"/>
       <c r="C73" s="37" t="s">
         <v>240</v>
@@ -9489,7 +9472,7 @@
       <c r="AI73" s="48"/>
       <c r="AJ73" s="7"/>
     </row>
-    <row r="74" spans="2:36" s="1" customFormat="1">
+    <row r="74" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="40"/>
       <c r="C74" s="37" t="s">
         <v>242</v>
@@ -9595,7 +9578,7 @@
       <c r="AI74" s="48"/>
       <c r="AJ74" s="7"/>
     </row>
-    <row r="75" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="75" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B75" s="40"/>
       <c r="C75" s="37" t="s">
         <v>244</v>
@@ -9705,7 +9688,7 @@
       </c>
       <c r="AJ75" s="7"/>
     </row>
-    <row r="76" spans="2:36" s="1" customFormat="1">
+    <row r="76" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="40"/>
       <c r="C76" s="37" t="s">
         <v>246</v>
@@ -9811,7 +9794,7 @@
       <c r="AI76" s="48"/>
       <c r="AJ76" s="7"/>
     </row>
-    <row r="77" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="77" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B77" s="40"/>
       <c r="C77" s="37" t="s">
         <v>262</v>
@@ -9921,7 +9904,7 @@
       </c>
       <c r="AJ77" s="7"/>
     </row>
-    <row r="78" spans="2:36" s="1" customFormat="1">
+    <row r="78" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="40"/>
       <c r="C78" s="37" t="s">
         <v>263</v>
@@ -10027,7 +10010,7 @@
       <c r="AI78" s="47"/>
       <c r="AJ78" s="7"/>
     </row>
-    <row r="79" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="79" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B79" s="40"/>
       <c r="C79" s="37" t="s">
         <v>76</v>
@@ -10137,7 +10120,7 @@
       </c>
       <c r="AJ79" s="7"/>
     </row>
-    <row r="80" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="80" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B80" s="40"/>
       <c r="C80" s="37" t="s">
         <v>268</v>
@@ -10247,7 +10230,7 @@
       </c>
       <c r="AJ80" s="7"/>
     </row>
-    <row r="81" spans="2:36" s="1" customFormat="1">
+    <row r="81" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="40"/>
       <c r="C81" s="37" t="s">
         <v>269</v>
@@ -10353,7 +10336,7 @@
       <c r="AI81" s="47"/>
       <c r="AJ81" s="7"/>
     </row>
-    <row r="82" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="82" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B82" s="40"/>
       <c r="C82" s="37" t="s">
         <v>277</v>
@@ -10464,7 +10447,7 @@
       </c>
       <c r="AJ82" s="7"/>
     </row>
-    <row r="83" spans="2:36" s="1" customFormat="1">
+    <row r="83" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="40"/>
       <c r="C83" s="37" t="s">
         <v>280</v>
@@ -10571,7 +10554,7 @@
       <c r="AI83" s="47"/>
       <c r="AJ83" s="7"/>
     </row>
-    <row r="84" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="84" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B84" s="40"/>
       <c r="C84" s="37" t="s">
         <v>284</v>
@@ -10682,7 +10665,7 @@
       </c>
       <c r="AJ84" s="7"/>
     </row>
-    <row r="85" spans="2:36" s="1" customFormat="1">
+    <row r="85" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="40"/>
       <c r="C85" s="37" t="s">
         <v>285</v>
@@ -10789,7 +10772,7 @@
       <c r="AI85" s="47"/>
       <c r="AJ85" s="7"/>
     </row>
-    <row r="86" spans="2:36" s="1" customFormat="1" ht="12" thickBot="1">
+    <row r="86" spans="2:36" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="13"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
@@ -10826,7 +10809,7 @@
       <c r="AI86" s="14"/>
       <c r="AJ86" s="15"/>
     </row>
-    <row r="87" spans="2:36" s="1" customFormat="1" ht="11.25"/>
+    <row r="87" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="11">

--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_CmsRateBonds.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_CmsRateBonds.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="302">
   <si>
     <t>General Settings</t>
   </si>
@@ -999,9 +999,6 @@
   </si>
   <si>
     <t>EurLiborSwapIfrFix10Y</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1970,8 +1967,9 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>302</v>
+      <c r="D8" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\080_Bond\010_BondDataBase\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -2221,12 +2219,12 @@
         <v>31</v>
       </c>
       <c r="D6" s="24" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F9:J85,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" s="36" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F9:J85,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="36" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
